--- a/MT2.xlsx
+++ b/MT2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela Pinheiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6335019A-E575-4644-99AE-6E7C6CEA69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7509452-CCBF-4C95-A96E-9BB7043CB918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="1860" windowWidth="19160" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17750" yWindow="3350" windowWidth="19160" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>q63</t>
   </si>
   <si>
-    <t>sigma</t>
+    <t>ε</t>
   </si>
 </sst>
 </file>
@@ -354,12 +354,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1369,9 +1368,8 @@
       <c r="K20" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1434,14 +1432,14 @@
       <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
